--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_08.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,303 +505,339 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701128.2641683</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701129.7476904</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701128.2641683.png</t>
+          <t>1731876405.8822289</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701129.7476904.png</t>
+          <t>1731876406.0355465</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/LKOH1731876405.8822289.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2755.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2756.15</v>
+          <t>./test_images/LKOH1731876406.0355465.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.6500000000000909</v>
+        <v>7135.5</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02</v>
+        <v>7139.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701130.0119917</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731701130.713143</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701130.0119917.png</t>
+          <t>1731876406.0764863</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701130.713143.png</t>
+          <t>1731876407.418169</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731876406.0764863.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2753.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2755.9</v>
+          <t>./test_images/LKOH1731876407.418169.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>2.099999999999909</v>
+        <v>7148.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08</v>
+        <v>7145.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731701131.1640034</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731701132.9045737</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701131.1640034.png</t>
+          <t>1731876407.4321046</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701132.9045737.png</t>
+          <t>1731876412.3619995</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731876407.4321046.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876412.3619995.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2749.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2743.65</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-5.949999999999818</v>
+        <v>7145.5</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.22</v>
+        <v>7084.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731701133.4371498</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731701133.6605523</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701133.4371498.png</t>
+          <t>1731876412.6854022</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701133.6605523.png</t>
+          <t>1731876414.0029328</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731876412.6854022.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2736.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2741.7</v>
+          <t>./test_images/LKOH1731876414.0029328.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>5.599999999999909</v>
+        <v>7094.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>7101</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731701134.1701906</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731701135.0219412</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701134.1701906.png</t>
+          <t>1731876414.318917</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701135.0219412.png</t>
+          <t>1731876414.45539</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/LKOH1731876414.318917.png</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2746.65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2743.9</v>
+          <t>./test_images/LKOH1731876414.45539.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>7101.5</v>
       </c>
       <c r="L7" t="n">
+        <v>7108.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -799,148 +845,7120 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731701135.8025656</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731701136.4415731</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701135.8025656.png</t>
+          <t>1731876415.0412195</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701136.4415731.png</t>
+          <t>1731876415.3955133</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731876415.0412195.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876415.3955133.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2741.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2744.75</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>7100</v>
       </c>
       <c r="L8" t="n">
-        <v>0.11</v>
+        <v>7095</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731701137.7418158</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731701138.9853425</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701137.7418158.png</t>
+          <t>1731876415.4094512</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701138.9853425.png</t>
+          <t>1731876415.4545226</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731876415.4094512.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876415.4545226.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2750.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2746.85</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>7095</v>
       </c>
       <c r="L9" t="n">
-        <v>0.12</v>
+        <v>7093.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731876415.4684718</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731876415.7918515</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876415.4684718.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876415.7918515.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>7093.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7098</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731876418.8788817</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731876420.2515714</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876418.8788817.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876420.2515714.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7093.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731876422.3989105</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731876422.88133</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876422.3989105.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876422.88133.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7093</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7095.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731876422.9706678</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731876426.1929603</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876422.9706678.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876426.1929603.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7090</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7069.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731876426.4895103</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876426.4895103.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>7075.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7075.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731876426.5653412</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731876426.7469618</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876426.5653412.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876426.7469618.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>474.15</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9499999999999886</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731876426.9808087</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731876428.5272832</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876426.9808087.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876428.5272832.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731876428.7069273</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731876428.9987175</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876428.7069273.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876428.9987175.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>475.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.09999999999996589</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731876429.1405416</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731876429.3209682</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876429.1405416.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876429.3209682.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>475.65</v>
+      </c>
+      <c r="L18" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731876429.3694422</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731876430.1145813</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876429.3694422.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876430.1145813.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731876430.6006057</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731876430.895332</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876430.6006057.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876430.895332.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>475.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731876430.9123845</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731876432.4383817</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876430.9123845.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876432.4383817.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>473.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.150000000000034</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731876437.121136</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731876437.2164156</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876437.121136.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876437.2164156.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>473.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>474.35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731876437.36208</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731876438.085557</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876437.36208.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876438.085557.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>473.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>473.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731876439.8145685</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731876441.2654707</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876439.8145685.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876441.2654707.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>474.05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731876444.405715</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731876446.412169</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876444.405715.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876446.412169.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>475.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3499999999999659</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731876447.1086566</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876447.1086566.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>474.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731876448.57233</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731876448.8585162</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876448.57233.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876448.8585162.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>932</v>
+      </c>
+      <c r="L27" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731876448.9096477</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731876449.0210297</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876448.9096477.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876449.0210297.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>934</v>
+      </c>
+      <c r="L28" t="n">
+        <v>932.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731876449.4170358</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731876450.0153131</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876449.4170358.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.0153131.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>933</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731876450.091822</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731876450.2276938</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.091822.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.2276938.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>933</v>
+      </c>
+      <c r="L30" t="n">
+        <v>934</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731876450.2423112</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731876450.3557813</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.2423112.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.3557813.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>934</v>
+      </c>
+      <c r="L31" t="n">
+        <v>933</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731876450.3711693</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731876451.457382</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876450.3711693.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876451.457382.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>933</v>
+      </c>
+      <c r="L32" t="n">
+        <v>932.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731876451.6240199</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731876452.3208268</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876451.6240199.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876452.3208268.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>933</v>
+      </c>
+      <c r="L33" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731876452.4692023</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731876455.4876847</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876452.4692023.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876455.4876847.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>932.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>928.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-4.199999999999932</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731876456.0966566</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731876457.9504411</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876456.0966566.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876457.9504411.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>932.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>930.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731876458.2756083</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731876458.818715</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876458.2756083.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876458.818715.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>930</v>
+      </c>
+      <c r="L36" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731876458.8336735</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731876458.9122276</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876458.8336735.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876458.9122276.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731876459.2694228</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731876460.223198</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876459.2694228.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876460.223198.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>930.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731876460.2376616</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731876462.0252976</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876460.2376616.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876462.0252976.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>934</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-2.600000000000023</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731876464.2564933</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731876464.3356032</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876464.2564933.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876464.3356032.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>933.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>933</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731876466.9455733</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731876468.7312388</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876466.9455733.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876468.7312388.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>932</v>
+      </c>
+      <c r="L41" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731876468.7454028</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876468.7454028.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731876469.4504635</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731876470.0254364</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876469.4504635.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876470.0254364.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9599999999999795</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731876473.1934962</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731876475.3542848</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876473.1934962.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876475.3542848.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731876476.117549</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731876476.2584515</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876476.117549.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876476.2584515.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731876476.3453965</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731876476.760576</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876476.3453965.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876476.760576.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>129.42</v>
+      </c>
+      <c r="L46" t="n">
+        <v>129.36</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.05999999999997385</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731876476.958554</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731876477.1684859</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876476.958554.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876477.1684859.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>129.58</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731876477.212325</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731876478.1413476</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876477.212325.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876478.1413476.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="L48" t="n">
+        <v>129.56</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731876479.0749838</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731876479.8446603</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876479.0749838.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876479.8446603.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>129.58</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731876481.0465114</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731876482.7653787</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876481.0465114.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876482.7653787.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="L50" t="n">
+        <v>129.74</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.04000000000002046</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731876484.3320365</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731876484.484892</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876484.3320365.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876484.484892.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="L51" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731876485.3312116</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731876488.1436522</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876485.3312116.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876488.1436522.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="L52" t="n">
+        <v>130.06</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731876488.602571</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731876488.602571.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>130.02</v>
+      </c>
+      <c r="L53" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731876490.5642827</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731876492.2956748</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876490.5642827.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876492.2956748.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="L54" t="n">
+        <v>37.895</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.03500000000000369</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731876494.1635423</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731876495.8674023</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876494.1635423.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876495.8674023.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>37.725</v>
+      </c>
+      <c r="L55" t="n">
+        <v>37.855</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731876497.5132544</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731876497.7625442</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876497.5132544.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876497.7625442.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="L56" t="n">
+        <v>37.765</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731876498.3805397</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731876500.3694987</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876498.3805397.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876500.3694987.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="L57" t="n">
+        <v>37.815</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.06500000000000483</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731876502.5376582</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731876504.053003</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876502.5376582.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876504.053003.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>37.985</v>
+      </c>
+      <c r="L58" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.115000000000002</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731876505.8032281</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731876508.2985885</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876505.8032281.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876508.2985885.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="L59" t="n">
+        <v>38.055</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731876508.5463717</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876508.5463717.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="L60" t="n">
+        <v>37.975</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.03499999999999659</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731876512.146062</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731876515.16287</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876512.146062.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876515.16287.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1180.8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731876515.869044</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731876516.8282545</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876515.869044.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876516.8282545.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1182.4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.399999999999864</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731876517.7575762</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731876518.2917068</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876517.7575762.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876518.2917068.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1183.4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1183.4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731876518.3554883</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731876518.9491007</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876518.3554883.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876518.9491007.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1182.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1184.4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.800000000000182</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731876519.285572</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731876520.5945349</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876519.285572.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876520.5945349.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1185.6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731876521.2063456</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731876522.3854597</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876521.2063456.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876522.3854597.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1184.4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6000000000001364</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731876522.4012957</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731876524.8605874</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876522.4012957.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876524.8605874.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1184.4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1186.2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731876525.4968715</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731876528.3431346</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876525.4968715.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876528.3431346.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1191</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1189.8</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731876529.3634346</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731876530.2455585</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876529.3634346.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876530.2455585.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1191.4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1189.4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731876530.2929134</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731876530.630363</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876530.2929134.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876530.630363.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1190</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1190</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731876532.8569887</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731876535.787214</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876532.8569887.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876535.787214.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="L71" t="n">
+        <v>79</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731876536.1202493</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731876538.246976</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876536.1202493.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876538.246976.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="L72" t="n">
+        <v>78.22</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.7000000000000028</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731876538.9473884</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731876539.315791</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876538.9473884.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876539.315791.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="L73" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731876539.6151662</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731876541.4474735</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876539.6151662.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876541.4474735.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="L74" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.06999999999999318</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731876541.556389</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731876541.6652472</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876541.556389.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876541.6652472.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="L75" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731876541.9864995</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731876543.010466</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876541.9864995.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876543.010466.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="L76" t="n">
+        <v>78.31999999999999</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731876543.7021537</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731876545.4935682</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876543.7021537.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876545.4935682.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="L77" t="n">
+        <v>78.42</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731876547.7664604</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731876549.8457634</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876547.7664604.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876549.8457634.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="L78" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731876550.360649</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731876550.7404747</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876550.360649.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876550.7404747.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731876551.604126</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876551.604126.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="L80" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731876552.5845208</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731876554.3913918</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876552.5845208.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876554.3913918.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>103.28</v>
+      </c>
+      <c r="L81" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731876555.2454815</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731876556.3330166</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876555.2454815.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876556.3330166.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>103</v>
+      </c>
+      <c r="L82" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731876557.0113246</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731876558.7057436</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876557.0113246.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876558.7057436.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>102.38</v>
+      </c>
+      <c r="L83" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731876560.4494257</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731876561.447578</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876560.4494257.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876561.447578.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="L84" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731876562.126882</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731876562.2981536</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876562.126882.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876562.2981536.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>102.64</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731876562.3741977</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731876562.9868605</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876562.3741977.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876562.9868605.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>102.32</v>
+      </c>
+      <c r="L86" t="n">
+        <v>102.76</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4400000000000119</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731876564.0744188</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731876565.5502255</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876564.0744188.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876565.5502255.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>102.87</v>
+      </c>
+      <c r="L87" t="n">
+        <v>102.79</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731876568.2643018</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731876569.2654688</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876568.2643018.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876569.2654688.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>103.36</v>
+      </c>
+      <c r="L88" t="n">
+        <v>102.98</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731876572.456311</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731876572.720933</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876572.456311.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876572.720933.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>102.69</v>
+      </c>
+      <c r="L89" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731701143.8682845</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701143.8682845.png</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731876573.8360868</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731876575.5303905</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876573.8360868.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876575.5303905.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>2755.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2756.15</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.6500000000000909</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731876575.809366</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731876576.6011074</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876575.809366.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876576.6011074.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>2753.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2755.9</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.099999999999909</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731876577.1467881</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731876579.7197113</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876577.1467881.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876579.7197113.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>2749.6</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2743.65</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-5.949999999999818</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731876580.4833705</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731876580.7554991</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876580.4833705.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876580.7554991.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>2736.1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2741.7</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5.599999999999909</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731876581.3986313</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731876582.7635007</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876581.3986313.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876582.7635007.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>2746.65</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2743.9</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731876583.7734103</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731876584.528246</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876583.7734103.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876584.528246.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>2741.75</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2744.75</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731876585.984477</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731876587.3200586</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876585.984477.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876587.3200586.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>2750.1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2746.85</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731876593.2332902</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876593.2332902.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2742.55</v>
       </c>
-      <c r="J10" t="n">
-        <v>2742.55</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L97" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731876599.9712427</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731876600.9242966</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876599.9712427.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876600.9242966.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>10.842</v>
+      </c>
+      <c r="L98" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.03800000000000026</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731876601.0723345</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731876602.0581613</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876601.0723345.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876602.0581613.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>10.884</v>
+      </c>
+      <c r="L99" t="n">
+        <v>10.854</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731876602.9415548</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731876603.0756247</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876602.9415548.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876603.0756247.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="L100" t="n">
+        <v>10.864</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.004000000000001336</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731876604.5592105</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731876605.0657294</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876604.5592105.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876605.0657294.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>10.832</v>
+      </c>
+      <c r="L101" t="n">
+        <v>10.856</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.02399999999999913</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731876609.0123522</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731876610.7206864</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876609.0123522.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876610.7206864.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>10.836</v>
+      </c>
+      <c r="L102" t="n">
+        <v>10.854</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.01799999999999891</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731876612.0943844</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731876612.8346372</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876612.0943844.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876612.8346372.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>10.856</v>
+      </c>
+      <c r="L103" t="n">
+        <v>10.846</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731876613.6060438</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/APTK1731876613.6060438.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>10.858</v>
+      </c>
+      <c r="L104" t="n">
+        <v>10.868</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731876616.90549</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731876619.0394623</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876616.90549.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876619.0394623.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="L105" t="n">
+        <v>482.2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731876619.8622403</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1731876622.2286942</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876619.8622403.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876622.2286942.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="L106" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731876622.4876807</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731876623.960951</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876622.4876807.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876623.960951.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="L107" t="n">
+        <v>481.7</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731876624.7938266</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731876625.6714513</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876624.7938266.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876625.6714513.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>481</v>
+      </c>
+      <c r="L108" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731876626.8326142</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731876629.9433258</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876626.8326142.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876629.9433258.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>483</v>
+      </c>
+      <c r="L109" t="n">
+        <v>486.1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-3.100000000000023</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731876633.8563526</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731876634.9445941</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876633.8563526.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/PIKK1731876634.9445941.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>483.3</v>
+      </c>
+      <c r="L110" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731876635.983371</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731876637.171139</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876635.983371.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876637.171139.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="M111" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N111" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731876638.019918</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731876638.425956</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876638.019918.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876638.425956.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>575.6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.6999999999999318</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731876638.688099</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731876639.0001793</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876638.688099.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876639.0001793.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>575.1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731876639.5077505</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1731876641.2333975</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876639.5077505.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876641.2333975.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>575</v>
+      </c>
+      <c r="L114" t="n">
+        <v>574.9</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731876642.9239342</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731876643.2314353</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876642.9239342.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876643.2314353.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>576.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>575.9</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731876643.637693</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731876645.3891513</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876643.637693.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876645.3891513.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>577.7</v>
+      </c>
+      <c r="L116" t="n">
+        <v>577</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731876645.9435885</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731876646.1720884</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876645.9435885.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876646.1720884.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>577</v>
+      </c>
+      <c r="L117" t="n">
+        <v>578</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731876647.251655</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731876648.8706183</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876647.251655.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876648.8706183.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>578.9</v>
+      </c>
+      <c r="L118" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731876649.2571151</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731876649.3691587</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.2571151.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.3691587.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731876649.3893237</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731876649.433376</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.3893237.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.433376.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731876649.4501553</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731876649.4928274</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.4501553.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.4928274.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731876649.5100622</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731876649.5616508</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.5100622.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.5616508.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731876649.5756142</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731876649.6240025</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.5756142.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.6240025.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731876649.6399634</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731876649.7509542</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.6399634.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.7509542.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731876649.7681868</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731876649.8165786</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.7681868.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.8165786.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731876649.8335333</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1731876649.9054134</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.8335333.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.9054134.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>580.3</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1731876649.9554923</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1731876650.1209705</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876649.9554923.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876650.1209705.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>580.1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1731876650.3354843</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1731876651.0758398</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876650.3354843.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876651.0758398.png</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>580.9</v>
+      </c>
+      <c r="L128" t="n">
+        <v>581</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1731876651.7572644</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1731876652.6557472</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876651.7572644.png</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876652.6557472.png</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>582.9</v>
+      </c>
+      <c r="L129" t="n">
+        <v>583</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1731876652.9714973</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1731876653.4425118</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876652.9714973.png</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876653.4425118.png</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>584</v>
+      </c>
+      <c r="L130" t="n">
+        <v>582.2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1731876654.076886</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876654.076886.png</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>582</v>
+      </c>
+      <c r="L131" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-6.299999999999955</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-1.08</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,42 +8015,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.09999999999991</v>
+        <v>-0.8999999999999773</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.262499999999989</v>
+        <v>-0.04285714285714178</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.600000000000136</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1625000000000085</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.333333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.8900000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.099999999999909</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09166666666665908</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.879999999999939</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1709090909090853</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.600000000000364</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2600000000000364</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7599999999999909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0759999999999991</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.069999999999993</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2299999999999992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11.99999999999955</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.499999999999943</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>APTK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1140000000000008</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0162857142857144</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04571428571428576</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>PIKK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2999999999998977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04999999999998295</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
